--- a/src/analises/result/excel/mefs_aleatorias/fsm_random-all_results.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/fsm_random-all_results.xlsx
@@ -8,61 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AC6D77-42D3-2546-92F1-58DB3A504CB6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90187AB-EFF8-F347-8129-54978C84DBF3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="460" windowWidth="24060" windowHeight="19520" xr2:uid="{2EE634F3-C8F3-7B4E-B54A-B04D9C0D3C86}"/>
+    <workbookView xWindow="15200" yWindow="460" windowWidth="23200" windowHeight="19520" xr2:uid="{2EE634F3-C8F3-7B4E-B54A-B04D9C0D3C86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$23</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$23</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$33</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$4:$A$12</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$I$14:$I$22</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$I$24:$I$32</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$I$34:$I$42</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$I$4:$I$12</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$13</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$A$23</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$33</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$A$4:$A$12</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$H$14:$H$22</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$H$24:$H$32</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$H$34:$H$42</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$H$4:$H$12</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$A$13</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$A$23</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$33</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$A$33</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$A$4:$A$12</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$H$14:$H$22</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$H$24:$H$32</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$H$34:$H$42</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$H$4:$H$12</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$A$13</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$A$23</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$A$3</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$A$33</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$4:$A$12</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$A$4:$A$12</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$N$14:$N$22</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$N$24:$N$32</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$N$34:$N$42</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$N$4:$N$12</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$L$14:$L$22</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$L$24:$L$32</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$L$34:$L$42</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$4:$L$12</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$13</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Number of test cases</t>
   </si>
@@ -118,12 +71,15 @@
   <si>
     <t>CPP</t>
   </si>
+  <si>
+    <t>ONLY H-SWITCH COVER AND CPP ALL TRANSITIONS PAIR CRITERION</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,6 +91,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,20 +234,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -292,12 +247,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -315,6 +264,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5648,6 +5615,1317 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H-Switch Cover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$24:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.9090909090000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-18C5-7F46-A0CD-71A2D10DDACE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$34:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.9090909090000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-18C5-7F46-A0CD-71A2D10DDACE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="230996880"/>
+        <c:axId val="227451344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="230996880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>NUMBER OF STATES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227451344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227451344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>NUMBER OF TEST CASES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230996880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H-Switch Cover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$24:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1283.2828280000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1805.5102039999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2235.697917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2797.371134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3291.3838380000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3637.0808080000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4074.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4452.3608249999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4788.2886600000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B71-C942-8019-993FA3637E74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$34:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>342.60606059999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>547.30612240000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>748.04166669999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>936.08247419999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1124.767677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1325.8585860000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1537.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1713.3195880000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1878.556701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8B71-C942-8019-993FA3637E74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="230996880"/>
+        <c:axId val="227451344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="230996880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>NUMBER OF STATES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227451344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227451344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>NUMBER OF INPUTS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t> (WITH RESETS)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230996880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H-Switch Cover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$24:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1279.3737369999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1801.5102039999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2231.697917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2793.371134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3287.3838380000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3633.0808080000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4070.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4448.3608249999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4784.2886600000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-002D-F14F-A5B0-D4BE744378F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$34:$M$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>338.69696970000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>543.30612240000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>744.04166669999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>932.08247419999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1120.767677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1321.8585860000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1533.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1709.3195880000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1874.556701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-002D-F14F-A5B0-D4BE744378F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="230996880"/>
+        <c:axId val="227451344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="230996880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>NUMBER OF </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t>STATES</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227451344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227451344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>NUMBER</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="0" baseline="0"/>
+                  <a:t> OF INPUTS (NO RESETS)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230996880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -6247,6 +7525,2166 @@
                   <a:t> OF INPUTS (WITH RESETS)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230996880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H-Switch Cover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$24:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>325.72727270000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450.09183669999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>557.91666669999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>697.83505149999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>821.80808079999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>908.24242419999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1017.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1112.0515459999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1196.072165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-69B2-0940-9684-CE8D2326569E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$34:$N$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>85.111111109999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.82653060000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>186.01041670000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233.02061860000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280.19191919999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330.46464650000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>383.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>427.32989689999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>468.63917529999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-69B2-0940-9684-CE8D2326569E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="230996880"/>
+        <c:axId val="227451344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="230996880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>NUMBER OF STATES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227451344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227451344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>LENGTH OF LESS TEST CASE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230996880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H-Switch Cover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$24:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>325.78787879999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>451.2142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>557.92708330000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>698.54639180000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>821.85858589999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>908.28282830000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1017.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1112.113402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1196.072165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDF0-344C-A8D3-2BDEB182C9E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$34:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>85.111111109999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.82653060000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>186.01041670000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233.02061860000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280.19191919999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330.46464650000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>383.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>427.32989689999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>468.63917529999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BDF0-344C-A8D3-2BDEB182C9E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="230996880"/>
+        <c:axId val="227451344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="230996880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>NUMBER OF STATES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227451344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227451344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>LENGTH OF LARGEST TEST CASE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230996880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H-Switch Cover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$24:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>325.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450.37755099999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>557.92447919999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>698.3427835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>821.84595960000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>908.27020200000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1017.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1112.0902060000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1196.072165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-741A-D648-905C-E780B326895D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$34:$P$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>85.111111109999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.82653060000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>186.01041670000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>233.02061860000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280.19191919999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>330.46464650000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>383.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>427.32989689999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>468.63917529999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-741A-D648-905C-E780B326895D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="230996880"/>
+        <c:axId val="227451344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="230996880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>NUMBER OF STATES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227451344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227451344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>AVERAGE LENGTH</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230996880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H-Switch Cover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$24:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5268321999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56122448999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083329999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34466889499999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5252525000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9335491E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3320110999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AA15-5E4C-9FBD-E54A86EACEF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$34:$Q$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AA15-5E4C-9FBD-E54A86EACEF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="230996880"/>
+        <c:axId val="227451344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="230996880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>NUMBER OF STATES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227451344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227451344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>STANDARD DEVIATION</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230996880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>H-Switch Cover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$24:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.6195286E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.158163269999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6041670000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.624570447</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3131312999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2727272999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0068728999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-70E7-8F49-8B6B-9EE21BBB771D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$34:$R$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-70E7-8F49-8B6B-9EE21BBB771D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="230996880"/>
+        <c:axId val="227451344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="230996880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>NUMBER OF STATES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227451344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227451344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>VARIATION</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -11572,6 +15010,310 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED45BB0-3436-E843-9928-E9E87368CF24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E446CA-2CA1-A042-A92D-D7B78B78CB0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06546A4-6A67-954C-9A69-76720E80ED82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83227961-2397-1D45-B416-33FFD0C65ADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Chart 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78506272-4932-3C45-ABC5-0B4CA3D5E564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85D343E-4880-AA4C-818B-127D14AC089A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Chart 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82073416-2DD2-4B47-8801-200788B8C451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Chart 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D66418-2C9E-8A4A-8B97-8C9AD9A60640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13877,7 +17619,2295 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride16.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride17.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride18.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride19.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride20.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride21.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride22.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride23.xml><?xml version="1.0" encoding="utf-8"?>
 <a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:clrScheme name="Office">
     <a:dk1>
@@ -16167,144 +22197,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27355D29-B019-1441-9750-10D890D0A95F}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="M195" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.1640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="K3" s="3" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="K3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4" s="12">
         <v>4</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>8.2323232320000006</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>35.949494950000002</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>27.71717172</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>2.1818181820000002</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>4.151515152</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="7">
         <v>3.3770446160000001</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>0.766735897</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <v>0.70306309899999997</v>
       </c>
       <c r="K4" s="1">
@@ -16333,60 +22363,60 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>6</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="8">
         <v>13.73469388</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <v>65.418367349999997</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="8">
         <v>51.683673470000002</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="8">
         <v>2.2448979590000002</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="8">
         <v>4.8673469389999999</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="8">
         <v>3.7687097970000001</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="8">
         <v>0.90438987699999995</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="8">
         <v>0.93006060599999996</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="8">
         <v>292</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="8">
         <v>1662.346939</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="8">
         <v>1370.346939</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="8">
         <v>2.5510204079999999</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="8">
         <v>6.4081632649999998</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="8">
         <v>4.6929689679999997</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="8">
         <v>0.96594860999999999</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="8">
         <v>0.98421881099999997</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="A6" s="11">
         <v>8</v>
       </c>
       <c r="B6" s="1">
@@ -16439,60 +22469,60 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>10</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="8">
         <v>25.41237113</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="8">
         <v>135.43298970000001</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="8">
         <v>110.02061860000001</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="8">
         <v>2.3298969070000002</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="8">
         <v>6.0515463919999997</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="8">
         <v>4.3298289250000002</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="8">
         <v>1.163039261</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="8">
         <v>1.482662903</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="8">
         <v>484</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="8">
         <v>3068.628866</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="8">
         <v>2584.628866</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="8">
         <v>2.7216494849999999</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="8">
         <v>7.969072165</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="8">
         <v>5.3401422849999998</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="8">
         <v>1.2521318560000001</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="8">
         <v>1.6480090919999999</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="A8" s="11">
         <v>12</v>
       </c>
       <c r="B8" s="1">
@@ -16545,60 +22575,60 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>14</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="8">
         <v>35.848484849999998</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="8">
         <v>253.91919189999999</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="8">
         <v>218.07070709999999</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="8">
         <v>2.4444444440000002</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="8">
         <v>9.848484848</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="8">
         <v>6.0935587680000003</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="8">
         <v>2.026309758</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="8">
         <v>4.5257334440000001</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="8">
         <v>676</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="8">
         <v>4630.757576</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="8">
         <v>3954.757576</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="8">
         <v>2.7777777779999999</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="8">
         <v>9.1616161619999996</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="8">
         <v>5.8502330999999996</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="8">
         <v>1.492405776</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="8">
         <v>2.3631596479999999</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="A10" s="11">
         <v>16</v>
       </c>
       <c r="B10" s="1">
@@ -16651,84 +22681,84 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <v>18</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="8">
         <v>47.175257729999998</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="8">
         <v>392.1443299</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="8">
         <v>344.96907220000003</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="8">
         <v>2.6391752579999999</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="8">
         <v>12.48453608</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="8">
         <v>7.3057515039999998</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="8">
         <v>2.6335990909999998</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="8">
         <v>7.6195127749999996</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="8">
         <v>868</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="8">
         <v>6342.1752580000002</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="8">
         <v>5474.1752580000002</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="8">
         <v>2.7731958759999999</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="8">
         <v>10.48453608</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="8">
         <v>6.3066535229999996</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="8">
         <v>1.7460535180000001</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="8">
         <v>3.2743175660000001</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="A12" s="14">
         <v>20</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>53.103092779999997</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>471.32989689999999</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>418.22680409999998</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>2.628865979</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>13.42268041</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>7.8820218970000004</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <v>2.8838130820000001</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="6">
         <v>9.0837061119999998</v>
       </c>
       <c r="K12" s="1">
@@ -16757,83 +22787,83 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="K13" s="3" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="K13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+      <c r="A14" s="16">
         <v>4</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="9">
         <v>3.3838383840000001</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="9">
         <v>37.292929289999996</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="9">
         <v>33.909090910000003</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="9">
         <v>8.5959595960000001</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="9">
         <v>12.56565657</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="9">
         <v>10.42845118</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="9">
         <v>2.082260175</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="9">
         <v>6.4991582489999997</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="8">
         <v>17.757575760000002</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="8">
         <v>564.47474750000003</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="8">
         <v>546.71717169999999</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="8">
         <v>16.171717170000001</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="8">
         <v>42.18181818</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="8">
         <v>31.917368079999999</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="8">
         <v>8.2257861139999999</v>
       </c>
-      <c r="R14" s="13">
+      <c r="R14" s="8">
         <v>78.766284540000001</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="A15" s="13">
         <v>6</v>
       </c>
       <c r="B15" s="1">
@@ -16886,60 +22916,60 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>8</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="8">
         <v>7.7916666670000003</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="8">
         <v>140.80208329999999</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="8">
         <v>133.01041670000001</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="8">
         <v>11.89583333</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="8">
         <v>22.375</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="8">
         <v>17.760674510000001</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="8">
         <v>4.1610281899999997</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="8">
         <v>20.597345879999999</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="8">
         <v>40.041666669999998</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="8">
         <v>2362.083333</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="8">
         <v>2322.041667</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="8">
         <v>21.208333329999999</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="8">
         <v>79.75</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="8">
         <v>60.11468919</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="8">
         <v>16.91002361</v>
       </c>
-      <c r="R16" s="13">
+      <c r="R16" s="8">
         <v>309.77868050000001</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="13">
         <v>10</v>
       </c>
       <c r="B17" s="1">
@@ -16992,60 +23022,60 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="5">
         <v>12</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="8">
         <v>11.56565657</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="8">
         <v>356.18181820000001</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="8">
         <v>344.6161616</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="8">
         <v>18.28282828</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="8">
         <v>38.939393940000002</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="8">
         <v>30.427251779999999</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="8">
         <v>7.4665058220000002</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="8">
         <v>70.172124819999993</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="8">
         <v>60.878787879999997</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="8">
         <v>5478.181818</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="8">
         <v>5417.30303</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="8">
         <v>28.272727270000001</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="8">
         <v>116.1010101</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="8">
         <v>91.332784939999996</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="8">
         <v>23.707913600000001</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="8">
         <v>605.69968159999996</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="A19" s="13">
         <v>14</v>
       </c>
       <c r="B19" s="1">
@@ -17098,60 +23128,60 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <v>16</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="8">
         <v>16.43</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="8">
         <v>749.47</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="8">
         <v>733.04</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="8">
         <v>23.75</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="8">
         <v>58.66</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="8">
         <v>45.74794953</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="8">
         <v>11.76933337</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="8">
         <v>166.5898833</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="8">
         <v>84.94</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="8">
         <v>9726.83</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="8">
         <v>9641.89</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="8">
         <v>26.72</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="8">
         <v>149.53</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="8">
         <v>115.5809029</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="8">
         <v>33.858662119999998</v>
       </c>
-      <c r="R20" s="13">
+      <c r="R20" s="8">
         <v>1227.8741</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+      <c r="A21" s="13">
         <v>18</v>
       </c>
       <c r="B21" s="1">
@@ -17204,107 +23234,107 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+      <c r="A22" s="15">
         <v>20</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="10">
         <v>20.40206186</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="10">
         <v>1256.639175</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="10">
         <v>1236.2371129999999</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="10">
         <v>29.15463918</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="10">
         <v>79.12371134</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="10">
         <v>61.604193250000002</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="10">
         <v>15.86573351</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="10">
         <v>281.54371459999999</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="8">
         <v>102.7731959</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="8">
         <v>15198.144329999999</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="8">
         <v>15095.37113</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="8">
         <v>30.618556699999999</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="8">
         <v>190.5257732</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="8">
         <v>148.90385570000001</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="8">
         <v>41.944222099999998</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="8">
         <v>1845.465841</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="K23" s="3" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="K23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
+      <c r="A24" s="12">
         <v>4</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>1</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>130.65656569999999</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="7">
         <v>129.65656569999999</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="7">
         <v>129.65656569999999</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="7">
         <v>129.65656569999999</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="7">
         <v>129.65656569999999</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="7">
         <v>0</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="7">
         <v>0</v>
       </c>
       <c r="K24" s="1">
@@ -17333,60 +23363,60 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+      <c r="A25" s="5">
         <v>6</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="8">
         <v>183.77551020000001</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="8">
         <v>182.77551020000001</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="8">
         <v>182.77551020000001</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="8">
         <v>182.77551020000001</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="8">
         <v>182.77551020000001</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="8">
         <v>0</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="8">
         <v>0</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="8">
         <v>4</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="8">
         <v>1805.5102039999999</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="8">
         <v>1801.5102039999999</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="8">
         <v>450.09183669999999</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="8">
         <v>451.2142857</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="8">
         <v>450.37755099999998</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="8">
         <v>0.56122448999999996</v>
       </c>
-      <c r="R25" s="13">
+      <c r="R25" s="8">
         <v>27.158163269999999</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
+      <c r="A26" s="11">
         <v>8</v>
       </c>
       <c r="B26" s="1">
@@ -17439,60 +23469,60 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+      <c r="A27" s="5">
         <v>10</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="8">
         <v>1</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="8">
         <v>297.94845359999999</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="8">
         <v>296.94845359999999</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="8">
         <v>296.94845359999999</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="8">
         <v>296.94845359999999</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="8">
         <v>296.94845359999999</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="8">
         <v>0</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="8">
         <v>0</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="8">
         <v>4</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="8">
         <v>2797.371134</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="8">
         <v>2793.371134</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="8">
         <v>697.83505149999996</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="8">
         <v>698.54639180000004</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="8">
         <v>698.3427835</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="8">
         <v>0.34466889499999998</v>
       </c>
-      <c r="R27" s="13">
+      <c r="R27" s="8">
         <v>8.624570447</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+      <c r="A28" s="11">
         <v>12</v>
       </c>
       <c r="B28" s="1">
@@ -17545,60 +23575,60 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
+      <c r="A29" s="5">
         <v>14</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="8">
         <v>1</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="8">
         <v>468.71717169999999</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="8">
         <v>467.71717169999999</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="8">
         <v>467.71717169999999</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="8">
         <v>467.71717169999999</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="8">
         <v>467.71717169999999</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="8">
         <v>0</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="8">
         <v>0</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="8">
         <v>4</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="8">
         <v>3637.0808080000002</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="8">
         <v>3633.0808080000002</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="8">
         <v>908.24242419999996</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="8">
         <v>908.28282830000001</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="8">
         <v>908.27020200000004</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="8">
         <v>1.9335491E-2</v>
       </c>
-      <c r="R29" s="13">
+      <c r="R29" s="8">
         <v>2.2727272999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
+      <c r="A30" s="11">
         <v>16</v>
       </c>
       <c r="B30" s="1">
@@ -17651,84 +23681,84 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+      <c r="A31" s="5">
         <v>18</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="8">
         <v>613.0927835</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="8">
         <v>612.0927835</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="8">
         <v>612.0927835</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="8">
         <v>612.0927835</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="8">
         <v>612.0927835</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="8">
         <v>0</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="8">
         <v>0</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="8">
         <v>4</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="8">
         <v>4452.3608249999997</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="8">
         <v>4448.3608249999997</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="8">
         <v>1112.0515459999999</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="8">
         <v>1112.113402</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="8">
         <v>1112.0902060000001</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="8">
         <v>3.3320110999999999E-2</v>
       </c>
-      <c r="R31" s="13">
+      <c r="R31" s="8">
         <v>3.0068728999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="19">
+      <c r="A32" s="14">
         <v>20</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="6">
         <v>1</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="6">
         <v>665.18556699999999</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="6">
         <v>664.18556699999999</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="6">
         <v>664.18556699999999</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="6">
         <v>664.18556699999999</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="6">
         <v>664.18556699999999</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="6">
         <v>0</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="6">
         <v>0</v>
       </c>
       <c r="K32" s="1">
@@ -17756,84 +23786,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="K33" s="2" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="K33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="21">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
         <v>4</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="9">
         <v>1</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="9">
         <v>20.767676770000001</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="9">
         <v>19.767676770000001</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="9">
         <v>19.767676770000001</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="9">
         <v>19.767676770000001</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="9">
         <v>19.767676770000001</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="9">
         <v>0</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="9">
         <v>0</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="8">
         <v>3.9090909090000001</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="8">
         <v>342.60606059999998</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="8">
         <v>338.69696970000001</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="8">
         <v>85.111111109999996</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O34" s="8">
         <v>85.111111109999996</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="8">
         <v>85.111111109999996</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="8">
         <v>0</v>
       </c>
-      <c r="R34" s="13">
+      <c r="R34" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="18">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
         <v>6</v>
       </c>
       <c r="B35" s="1">
@@ -17885,61 +23915,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>8</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="8">
         <v>1</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="8">
         <v>43.5</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="8">
         <v>42.5</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="8">
         <v>42.5</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="8">
         <v>42.5</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="8">
         <v>42.5</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="8">
         <v>0</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="8">
         <v>0</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="8">
         <v>4</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="8">
         <v>748.04166669999995</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="8">
         <v>744.04166669999995</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="8">
         <v>186.01041670000001</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="8">
         <v>186.01041670000001</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="8">
         <v>186.01041670000001</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q36" s="8">
         <v>0</v>
       </c>
-      <c r="R36" s="13">
+      <c r="R36" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="18">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
         <v>10</v>
       </c>
       <c r="B37" s="1">
@@ -17991,61 +24021,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>12</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="8">
         <v>1</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="8">
         <v>76.424242419999999</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="8">
         <v>75.424242419999999</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="8">
         <v>75.424242419999999</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="8">
         <v>75.424242419999999</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="8">
         <v>75.424242419999999</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="8">
         <v>0</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="8">
         <v>0</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="8">
         <v>4</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="8">
         <v>1124.767677</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="8">
         <v>1120.767677</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="8">
         <v>280.19191919999997</v>
       </c>
-      <c r="O38" s="13">
+      <c r="O38" s="8">
         <v>280.19191919999997</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="8">
         <v>280.19191919999997</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="8">
         <v>0</v>
       </c>
-      <c r="R38" s="13">
+      <c r="R38" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="18">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
         <v>14</v>
       </c>
       <c r="B39" s="1">
@@ -18097,61 +24127,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>16</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="8">
         <v>1</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="8">
         <v>121.93</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="8">
         <v>120.93</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="8">
         <v>120.93</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="8">
         <v>120.93</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="8">
         <v>120.93</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="8">
         <v>0</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="8">
         <v>0</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="8">
         <v>4</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="8">
         <v>1537.8</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="8">
         <v>1533.8</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N40" s="8">
         <v>383.45</v>
       </c>
-      <c r="O40" s="13">
+      <c r="O40" s="8">
         <v>383.45</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="8">
         <v>383.45</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="Q40" s="8">
         <v>0</v>
       </c>
-      <c r="R40" s="13">
+      <c r="R40" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="18">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
         <v>18</v>
       </c>
       <c r="B41" s="1">
@@ -18203,61 +24233,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="20">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
         <v>20</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="8">
         <v>162.95876290000001</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="8">
         <v>161.95876290000001</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="8">
         <v>161.95876290000001</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="8">
         <v>161.95876290000001</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="8">
         <v>161.95876290000001</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="8">
         <v>0</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="8">
         <v>0</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="8">
         <v>4</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="8">
         <v>1878.556701</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="8">
         <v>1874.556701</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N42" s="8">
         <v>468.63917529999998</v>
       </c>
-      <c r="O42" s="13">
+      <c r="O42" s="8">
         <v>468.63917529999998</v>
       </c>
-      <c r="P42" s="13">
+      <c r="P42" s="8">
         <v>468.63917529999998</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="Q42" s="8">
         <v>0</v>
       </c>
-      <c r="R42" s="13">
+      <c r="R42" s="8">
         <v>0</v>
       </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="T43" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="T43:AB43"/>
     <mergeCell ref="K1:R1"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="K33:R33"/>

--- a/src/analises/result/excel/mefs_aleatorias/fsm_random-all_results.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/fsm_random-all_results.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90187AB-EFF8-F347-8129-54978C84DBF3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E00D7B-6781-4649-B96A-88487A84D8A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="460" windowWidth="23200" windowHeight="19520" xr2:uid="{2EE634F3-C8F3-7B4E-B54A-B04D9C0D3C86}"/>
+    <workbookView xWindow="14420" yWindow="460" windowWidth="23640" windowHeight="19520" xr2:uid="{2EE634F3-C8F3-7B4E-B54A-B04D9C0D3C86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$33</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$4:$A$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$R$24:$R$32</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$R$34:$R$42</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -265,6 +273,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,9 +289,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5545,7 +5553,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="0"/>
-                  <a:t>VARIATION</a:t>
+                  <a:t>VARIANCE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9683,7 +9691,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="0"/>
-                  <a:t>VARIATION</a:t>
+                  <a:t>VARIANCE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -13675,7 +13683,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="0"/>
-                  <a:t>VARIATION</a:t>
+                  <a:t>VARIANCE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -22199,8 +22207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27355D29-B019-1441-9750-10D890D0A95F}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M195" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView tabSelected="1" topLeftCell="L170" workbookViewId="0">
+      <selection activeCell="M211" sqref="M211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22211,26 +22219,26 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="K1" s="20" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
     </row>
     <row r="2" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -22287,27 +22295,27 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="K3" s="24" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="K3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
@@ -22787,27 +22795,27 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="K13" s="24" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="K13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
@@ -23287,27 +23295,27 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="K23" s="24" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="K23" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
@@ -23787,27 +23795,27 @@
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="K33" s="21" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="K33" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
@@ -24287,17 +24295,17 @@
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="T43" s="25" t="s">
+      <c r="T43" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/src/analises/result/excel/mefs_aleatorias/fsm_random-all_results.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/fsm_random-all_results.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E00D7B-6781-4649-B96A-88487A84D8A1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2567C1E0-E0E4-0D41-B422-C2B821696C29}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14420" yWindow="460" windowWidth="23640" windowHeight="19520" xr2:uid="{2EE634F3-C8F3-7B4E-B54A-B04D9C0D3C86}"/>
+    <workbookView xWindow="14980" yWindow="460" windowWidth="23060" windowHeight="19520" xr2:uid="{2EE634F3-C8F3-7B4E-B54A-B04D9C0D3C86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$23</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$33</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$4:$A$12</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$R$24:$R$32</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$R$34:$R$42</definedName>
-  </definedNames>
-  <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -423,19 +415,19 @@
                   <c:v>25.41237113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.979797980000001</c:v>
+                  <c:v>29.838383839999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.848484849999998</c:v>
+                  <c:v>35.505050509999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.74</c:v>
+                  <c:v>41.32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.175257729999998</c:v>
+                  <c:v>46.804123709999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.103092779999997</c:v>
+                  <c:v>52.793814429999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,19 +531,19 @@
                   <c:v>9.5670103090000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.56565657</c:v>
+                  <c:v>11.51515152</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.070707069999999</c:v>
+                  <c:v>14.020202019999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.43</c:v>
+                  <c:v>16.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.24742268</c:v>
+                  <c:v>18.18556701</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.40206186</c:v>
+                  <c:v>20.30927835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,31 +1181,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>564.47474750000003</c:v>
+                  <c:v>2249.1414140000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1335.9285709999999</c:v>
+                  <c:v>5308.3979589999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2362.083333</c:v>
+                  <c:v>9403.4270830000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3802.6494849999999</c:v>
+                  <c:v>15126.329900000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5478.181818</c:v>
+                  <c:v>21825.686870000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7488.7474750000001</c:v>
+                  <c:v>29916.545450000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9726.83</c:v>
+                  <c:v>38953.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12308.804120000001</c:v>
+                  <c:v>49206.164949999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15198.144329999999</c:v>
+                  <c:v>60834.75258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,31 +1848,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>546.71717169999999</c:v>
+                  <c:v>2178.6161619999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1307.887755</c:v>
+                  <c:v>5197.1122450000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2322.041667</c:v>
+                  <c:v>9243.6145830000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3753.2268039999999</c:v>
+                  <c:v>14928.94845</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5417.30303</c:v>
+                  <c:v>21582.888889999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7415.8383839999997</c:v>
+                  <c:v>29625.373739999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9641.89</c:v>
+                  <c:v>38613.72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12215.268040000001</c:v>
+                  <c:v>48832.041239999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15095.37113</c:v>
+                  <c:v>60424.010309999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2528,31 +2520,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>16.171717170000001</c:v>
+                  <c:v>12.212121209999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.132653059999999</c:v>
+                  <c:v>14.64285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.208333329999999</c:v>
+                  <c:v>16.208333329999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.391752579999999</c:v>
+                  <c:v>19.824742270000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.272727270000001</c:v>
+                  <c:v>20.979797980000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.929292929999999</c:v>
+                  <c:v>20.272727270000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.72</c:v>
+                  <c:v>17.77</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.515463919999998</c:v>
+                  <c:v>21.958762889999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.618556699999999</c:v>
+                  <c:v>23.298969069999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3190,31 +3182,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>42.18181818</c:v>
+                  <c:v>43.19191919</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.306122449999997</c:v>
+                  <c:v>64.908163270000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.75</c:v>
+                  <c:v>81.322916669999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.030927840000004</c:v>
+                  <c:v>100.8659794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116.1010101</c:v>
+                  <c:v>118.01010100000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>134.05050510000001</c:v>
+                  <c:v>135.969697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149.53</c:v>
+                  <c:v>151.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170.57731960000001</c:v>
+                  <c:v>172.56701029999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>190.5257732</c:v>
+                  <c:v>193.19587630000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3852,31 +3844,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>31.917368079999999</c:v>
+                  <c:v>31.843807160000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.346883339999998</c:v>
+                  <c:v>48.435101549999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.11468919</c:v>
+                  <c:v>60.082717520000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.284567550000006</c:v>
+                  <c:v>77.986594100000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.332784939999996</c:v>
+                  <c:v>91.190876320000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103.4549698</c:v>
+                  <c:v>103.54163389999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115.5809029</c:v>
+                  <c:v>115.82207440000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>132.63237570000001</c:v>
+                  <c:v>132.50407939999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148.90385570000001</c:v>
+                  <c:v>149.11104280000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4514,31 +4506,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8.2257861139999999</c:v>
+                  <c:v>8.3447393939999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.25976197</c:v>
+                  <c:v>13.319270319999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.91002361</c:v>
+                  <c:v>16.98016702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.011952409999999</c:v>
+                  <c:v>20.336356469999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.707913600000001</c:v>
+                  <c:v>23.809413370000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.003534940000002</c:v>
+                  <c:v>28.87701839</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.858662119999998</c:v>
+                  <c:v>33.603654380000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.083239519999999</c:v>
+                  <c:v>37.05771867</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.944222099999998</c:v>
+                  <c:v>41.5851288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5176,31 +5168,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>78.766284540000001</c:v>
+                  <c:v>79.043439520000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190.4274882</c:v>
+                  <c:v>190.68622719999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>309.77868050000001</c:v>
+                  <c:v>308.86185360000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>434.67973760000001</c:v>
+                  <c:v>447.93002239999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>605.69968159999996</c:v>
+                  <c:v>607.16225970000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>897.39863620000006</c:v>
+                  <c:v>884.43729010000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1227.8741</c:v>
+                  <c:v>1199.4864789999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1428.062895</c:v>
+                  <c:v>1424.5244849999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1845.465841</c:v>
+                  <c:v>1801.413258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7045,19 +7037,19 @@
                   <c:v>135.43298970000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>191.45454549999999</c:v>
+                  <c:v>171.0909091</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>253.91919189999999</c:v>
+                  <c:v>210.26262629999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>324</c:v>
+                  <c:v>252.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>392.1443299</c:v>
+                  <c:v>295.9072165</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>471.32989689999999</c:v>
+                  <c:v>344.60824739999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7161,19 +7153,19 @@
                   <c:v>219.4948454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>356.18181820000001</c:v>
+                  <c:v>307.49494950000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>528.08080810000001</c:v>
+                  <c:v>414.97979800000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>749.47</c:v>
+                  <c:v>543.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>987.86597940000001</c:v>
+                  <c:v>692.65979379999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1256.639175</c:v>
+                  <c:v>846.8556701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7272,19 +7264,19 @@
                   <c:v>297.94845359999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>413.22222219999998</c:v>
+                  <c:v>351.68686869999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>468.71717169999999</c:v>
+                  <c:v>368.93939390000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>549.33000000000004</c:v>
+                  <c:v>401.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>613.0927835</c:v>
+                  <c:v>425.39175260000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>665.18556699999999</c:v>
+                  <c:v>437.63917529999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7388,19 +7380,19 @@
                   <c:v>54.731958759999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.424242419999999</c:v>
+                  <c:v>65.646464649999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.686868689999997</c:v>
+                  <c:v>76.858585860000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>121.93</c:v>
+                  <c:v>88.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>141.8247423</c:v>
+                  <c:v>99.175257729999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>162.95876290000001</c:v>
+                  <c:v>109.0103093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9872,19 +9864,19 @@
                   <c:v>110.02061860000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>161.47474750000001</c:v>
+                  <c:v>141.2525253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>218.07070709999999</c:v>
+                  <c:v>174.75757580000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>282.26</c:v>
+                  <c:v>210.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>344.96907220000003</c:v>
+                  <c:v>249.10309280000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>418.22680409999998</c:v>
+                  <c:v>291.81443300000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9988,19 +9980,19 @@
                   <c:v>209.92783510000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>344.6161616</c:v>
+                  <c:v>295.97979800000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>514.01010099999996</c:v>
+                  <c:v>400.95959599999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>733.04</c:v>
+                  <c:v>527.32000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>969.6185567</c:v>
+                  <c:v>674.4742268</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1236.2371129999999</c:v>
+                  <c:v>826.54639180000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10099,19 +10091,19 @@
                   <c:v>296.94845359999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>412.22222219999998</c:v>
+                  <c:v>350.68686869999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>467.71717169999999</c:v>
+                  <c:v>367.93939390000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>548.33000000000004</c:v>
+                  <c:v>400.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>612.0927835</c:v>
+                  <c:v>424.39175260000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>664.18556699999999</c:v>
+                  <c:v>436.63917529999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10215,19 +10207,19 @@
                   <c:v>53.731958759999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.424242419999999</c:v>
+                  <c:v>64.646464649999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.686868689999997</c:v>
+                  <c:v>75.858585860000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.93</c:v>
+                  <c:v>87.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.8247423</c:v>
+                  <c:v>98.175257729999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>161.95876290000001</c:v>
+                  <c:v>108.0103093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10539,19 +10531,19 @@
                   <c:v>2.3298969070000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3535353539999999</c:v>
+                  <c:v>2.3030303029999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4444444440000002</c:v>
+                  <c:v>2.2929292929999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.54</c:v>
+                  <c:v>2.27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6391752579999999</c:v>
+                  <c:v>2.3402061860000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.628865979</c:v>
+                  <c:v>2.3195876289999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10655,19 +10647,19 @@
                   <c:v>15.29896907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.28282828</c:v>
+                  <c:v>15.919191919999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.01010101</c:v>
+                  <c:v>15.969696969999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.75</c:v>
+                  <c:v>17.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>19.18556701</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.15463918</c:v>
+                  <c:v>20.051546389999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10766,19 +10758,19 @@
                   <c:v>296.94845359999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>412.22222219999998</c:v>
+                  <c:v>350.68686869999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>467.71717169999999</c:v>
+                  <c:v>367.93939390000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>548.33000000000004</c:v>
+                  <c:v>400.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>612.0927835</c:v>
+                  <c:v>424.39175260000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>664.18556699999999</c:v>
+                  <c:v>436.63917529999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10882,19 +10874,19 @@
                   <c:v>53.731958759999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.424242419999999</c:v>
+                  <c:v>64.646464649999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.686868689999997</c:v>
+                  <c:v>75.858585860000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.93</c:v>
+                  <c:v>87.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.8247423</c:v>
+                  <c:v>98.175257729999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>161.95876290000001</c:v>
+                  <c:v>108.0103093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11206,19 +11198,19 @@
                   <c:v>6.0515463919999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5858585860000005</c:v>
+                  <c:v>6.9191919190000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.848484848</c:v>
+                  <c:v>7.3131313130000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.03</c:v>
+                  <c:v>7.69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.48453608</c:v>
+                  <c:v>8.2474226799999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.42268041</c:v>
+                  <c:v>8.7525773200000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11322,19 +11314,19 @@
                   <c:v>28.226804120000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.939393940000002</c:v>
+                  <c:v>33.272727269999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.777777780000001</c:v>
+                  <c:v>37.171717170000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.66</c:v>
+                  <c:v>42.38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.18556701</c:v>
+                  <c:v>47.927835049999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79.12371134</c:v>
+                  <c:v>52.886597940000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11433,19 +11425,19 @@
                   <c:v>296.94845359999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>412.22222219999998</c:v>
+                  <c:v>350.68686869999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>467.71717169999999</c:v>
+                  <c:v>367.93939390000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>548.33000000000004</c:v>
+                  <c:v>400.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>612.0927835</c:v>
+                  <c:v>424.39175260000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>664.18556699999999</c:v>
+                  <c:v>436.63917529999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11549,19 +11541,19 @@
                   <c:v>53.731958759999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.424242419999999</c:v>
+                  <c:v>64.646464649999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.686868689999997</c:v>
+                  <c:v>75.858585860000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.93</c:v>
+                  <c:v>87.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.8247423</c:v>
+                  <c:v>98.175257729999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>161.95876290000001</c:v>
+                  <c:v>108.0103093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11878,19 +11870,19 @@
                   <c:v>4.3298289250000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3951768700000002</c:v>
+                  <c:v>4.7433795249999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0935587680000003</c:v>
+                  <c:v>4.9297355119999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7648798040000004</c:v>
+                  <c:v>5.1034099060000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3057515039999998</c:v>
+                  <c:v>5.321230226</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.8820218970000004</c:v>
+                  <c:v>5.5314001839999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11994,19 +11986,19 @@
                   <c:v>22.69553496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.427251779999999</c:v>
+                  <c:v>26.213870579999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.322766270000002</c:v>
+                  <c:v>29.209199430000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.74794953</c:v>
+                  <c:v>33.14454963</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.054142400000003</c:v>
+                  <c:v>37.70811621</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.604193250000002</c:v>
+                  <c:v>41.392901979999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12105,19 +12097,19 @@
                   <c:v>296.94845359999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>412.22222219999998</c:v>
+                  <c:v>350.68686869999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>467.71717169999999</c:v>
+                  <c:v>367.93939390000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>548.33000000000004</c:v>
+                  <c:v>400.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>612.0927835</c:v>
+                  <c:v>424.39175260000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>664.18556699999999</c:v>
+                  <c:v>436.63917529999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12221,19 +12213,19 @@
                   <c:v>53.731958759999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.424242419999999</c:v>
+                  <c:v>64.646464649999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.686868689999997</c:v>
+                  <c:v>75.858585860000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.93</c:v>
+                  <c:v>87.94</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.8247423</c:v>
+                  <c:v>98.175257729999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>161.95876290000001</c:v>
+                  <c:v>108.0103093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12540,19 +12532,19 @@
                   <c:v>1.163039261</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7335318159999999</c:v>
+                  <c:v>1.3717702380000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.026309758</c:v>
+                  <c:v>1.460244136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3153459949999999</c:v>
+                  <c:v>1.532455846</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6335990909999998</c:v>
+                  <c:v>1.6476098530000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8838130820000001</c:v>
+                  <c:v>1.7880565479999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12656,19 +12648,19 @@
                   <c:v>4.8284088159999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.4665058220000002</c:v>
+                  <c:v>6.3452085580000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3793808120000008</c:v>
+                  <c:v>7.2011670309999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.76933337</c:v>
+                  <c:v>8.5527159229999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.684280660000001</c:v>
+                  <c:v>9.3981537530000008</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.86573351</c:v>
+                  <c:v>10.517408469999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13202,19 +13194,19 @@
                   <c:v>1.482662903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2653379820000001</c:v>
+                  <c:v>2.0713742740000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5257334440000001</c:v>
+                  <c:v>2.3759268699999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8435752550000002</c:v>
+                  <c:v>2.5594885889999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6195127749999996</c:v>
+                  <c:v>3.02126677</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0837061119999998</c:v>
+                  <c:v>3.538067093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13318,19 +13310,19 @@
                   <c:v>30.252994170000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.172124819999993</c:v>
+                  <c:v>50.763472829999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103.10665</c:v>
+                  <c:v>60.436836079999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>166.5898833</c:v>
+                  <c:v>88.030601090000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>213.8925749</c:v>
+                  <c:v>100.1391471</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>281.54371459999999</c:v>
+                  <c:v>123.91606470000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13968,31 +13960,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17.757575760000002</c:v>
+                  <c:v>70.525252530000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.040816329999998</c:v>
+                  <c:v>111.2857143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.041666669999998</c:v>
+                  <c:v>159.8125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.422680409999998</c:v>
+                  <c:v>197.3814433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.878787879999997</c:v>
+                  <c:v>242.79797980000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.909090910000003</c:v>
+                  <c:v>291.17171719999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84.94</c:v>
+                  <c:v>339.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93.536082469999997</c:v>
+                  <c:v>374.12371130000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>102.7731959</c:v>
+                  <c:v>410.74226800000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22207,8 +22199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27355D29-B019-1441-9750-10D890D0A95F}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L170" workbookViewId="0">
-      <selection activeCell="M211" sqref="M211"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34:R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22534,28 +22526,28 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>29.979797980000001</v>
+        <v>29.838383839999999</v>
       </c>
       <c r="C8" s="1">
-        <v>191.45454549999999</v>
+        <v>171.0909091</v>
       </c>
       <c r="D8" s="1">
-        <v>161.47474750000001</v>
+        <v>141.2525253</v>
       </c>
       <c r="E8" s="1">
-        <v>2.3535353539999999</v>
+        <v>2.3030303029999999</v>
       </c>
       <c r="F8" s="1">
-        <v>8.5858585860000005</v>
+        <v>6.9191919190000002</v>
       </c>
       <c r="G8" s="1">
-        <v>5.3951768700000002</v>
+        <v>4.7433795249999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1.7335318159999999</v>
+        <v>1.3717702380000001</v>
       </c>
       <c r="I8" s="1">
-        <v>3.2653379820000001</v>
+        <v>2.0713742740000001</v>
       </c>
       <c r="K8" s="1">
         <v>580</v>
@@ -22587,28 +22579,28 @@
         <v>14</v>
       </c>
       <c r="B9" s="8">
-        <v>35.848484849999998</v>
+        <v>35.505050509999997</v>
       </c>
       <c r="C9" s="8">
-        <v>253.91919189999999</v>
+        <v>210.26262629999999</v>
       </c>
       <c r="D9" s="8">
-        <v>218.07070709999999</v>
+        <v>174.75757580000001</v>
       </c>
       <c r="E9" s="8">
-        <v>2.4444444440000002</v>
+        <v>2.2929292929999998</v>
       </c>
       <c r="F9" s="8">
-        <v>9.848484848</v>
+        <v>7.3131313130000004</v>
       </c>
       <c r="G9" s="8">
-        <v>6.0935587680000003</v>
+        <v>4.9297355119999997</v>
       </c>
       <c r="H9" s="8">
-        <v>2.026309758</v>
+        <v>1.460244136</v>
       </c>
       <c r="I9" s="8">
-        <v>4.5257334440000001</v>
+        <v>2.3759268699999998</v>
       </c>
       <c r="K9" s="8">
         <v>676</v>
@@ -22640,28 +22632,28 @@
         <v>16</v>
       </c>
       <c r="B10" s="1">
-        <v>41.74</v>
+        <v>41.32</v>
       </c>
       <c r="C10" s="1">
-        <v>324</v>
+        <v>252.12</v>
       </c>
       <c r="D10" s="1">
-        <v>282.26</v>
+        <v>210.8</v>
       </c>
       <c r="E10" s="1">
-        <v>2.54</v>
+        <v>2.27</v>
       </c>
       <c r="F10" s="1">
-        <v>11.03</v>
+        <v>7.69</v>
       </c>
       <c r="G10" s="1">
-        <v>6.7648798040000004</v>
+        <v>5.1034099060000004</v>
       </c>
       <c r="H10" s="1">
-        <v>2.3153459949999999</v>
+        <v>1.532455846</v>
       </c>
       <c r="I10" s="1">
-        <v>5.8435752550000002</v>
+        <v>2.5594885889999999</v>
       </c>
       <c r="K10" s="1">
         <v>772</v>
@@ -22693,28 +22685,28 @@
         <v>18</v>
       </c>
       <c r="B11" s="8">
-        <v>47.175257729999998</v>
+        <v>46.804123709999999</v>
       </c>
       <c r="C11" s="8">
-        <v>392.1443299</v>
+        <v>295.9072165</v>
       </c>
       <c r="D11" s="8">
-        <v>344.96907220000003</v>
+        <v>249.10309280000001</v>
       </c>
       <c r="E11" s="8">
-        <v>2.6391752579999999</v>
+        <v>2.3402061860000001</v>
       </c>
       <c r="F11" s="8">
-        <v>12.48453608</v>
+        <v>8.2474226799999997</v>
       </c>
       <c r="G11" s="8">
-        <v>7.3057515039999998</v>
+        <v>5.321230226</v>
       </c>
       <c r="H11" s="8">
-        <v>2.6335990909999998</v>
+        <v>1.6476098530000001</v>
       </c>
       <c r="I11" s="8">
-        <v>7.6195127749999996</v>
+        <v>3.02126677</v>
       </c>
       <c r="K11" s="8">
         <v>868</v>
@@ -22746,28 +22738,28 @@
         <v>20</v>
       </c>
       <c r="B12" s="6">
-        <v>53.103092779999997</v>
+        <v>52.793814429999998</v>
       </c>
       <c r="C12" s="6">
-        <v>471.32989689999999</v>
+        <v>344.60824739999998</v>
       </c>
       <c r="D12" s="6">
-        <v>418.22680409999998</v>
+        <v>291.81443300000001</v>
       </c>
       <c r="E12" s="6">
-        <v>2.628865979</v>
+        <v>2.3195876289999999</v>
       </c>
       <c r="F12" s="6">
-        <v>13.42268041</v>
+        <v>8.7525773200000003</v>
       </c>
       <c r="G12" s="6">
-        <v>7.8820218970000004</v>
+        <v>5.5314001839999998</v>
       </c>
       <c r="H12" s="6">
-        <v>2.8838130820000001</v>
+        <v>1.7880565479999999</v>
       </c>
       <c r="I12" s="6">
-        <v>9.0837061119999998</v>
+        <v>3.538067093</v>
       </c>
       <c r="K12" s="1">
         <v>964</v>
@@ -22846,28 +22838,28 @@
         <v>6.4991582489999997</v>
       </c>
       <c r="K14" s="8">
-        <v>17.757575760000002</v>
+        <v>70.525252530000003</v>
       </c>
       <c r="L14" s="8">
-        <v>564.47474750000003</v>
+        <v>2249.1414140000002</v>
       </c>
       <c r="M14" s="8">
-        <v>546.71717169999999</v>
+        <v>2178.6161619999998</v>
       </c>
       <c r="N14" s="8">
-        <v>16.171717170000001</v>
+        <v>12.212121209999999</v>
       </c>
       <c r="O14" s="8">
-        <v>42.18181818</v>
+        <v>43.19191919</v>
       </c>
       <c r="P14" s="8">
-        <v>31.917368079999999</v>
+        <v>31.843807160000001</v>
       </c>
       <c r="Q14" s="8">
-        <v>8.2257861139999999</v>
+        <v>8.3447393939999994</v>
       </c>
       <c r="R14" s="8">
-        <v>78.766284540000001</v>
+        <v>79.043439520000007</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -22899,28 +22891,28 @@
         <v>10.81647635</v>
       </c>
       <c r="K15" s="1">
-        <v>28.040816329999998</v>
+        <v>111.2857143</v>
       </c>
       <c r="L15" s="1">
-        <v>1335.9285709999999</v>
+        <v>5308.3979589999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1307.887755</v>
+        <v>5197.1122450000003</v>
       </c>
       <c r="N15" s="1">
-        <v>19.132653059999999</v>
+        <v>14.64285714</v>
       </c>
       <c r="O15" s="1">
-        <v>63.306122449999997</v>
+        <v>64.908163270000003</v>
       </c>
       <c r="P15" s="1">
-        <v>48.346883339999998</v>
+        <v>48.435101549999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>13.25976197</v>
+        <v>13.319270319999999</v>
       </c>
       <c r="R15" s="1">
-        <v>190.4274882</v>
+        <v>190.68622719999999</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -22952,28 +22944,28 @@
         <v>20.597345879999999</v>
       </c>
       <c r="K16" s="8">
-        <v>40.041666669999998</v>
+        <v>159.8125</v>
       </c>
       <c r="L16" s="8">
-        <v>2362.083333</v>
+        <v>9403.4270830000005</v>
       </c>
       <c r="M16" s="8">
-        <v>2322.041667</v>
+        <v>9243.6145830000005</v>
       </c>
       <c r="N16" s="8">
-        <v>21.208333329999999</v>
+        <v>16.208333329999999</v>
       </c>
       <c r="O16" s="8">
-        <v>79.75</v>
+        <v>81.322916669999998</v>
       </c>
       <c r="P16" s="8">
-        <v>60.11468919</v>
+        <v>60.082717520000003</v>
       </c>
       <c r="Q16" s="8">
-        <v>16.91002361</v>
+        <v>16.98016702</v>
       </c>
       <c r="R16" s="8">
-        <v>309.77868050000001</v>
+        <v>308.86185360000002</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -23005,28 +22997,28 @@
         <v>30.252994170000001</v>
       </c>
       <c r="K17" s="1">
-        <v>49.422680409999998</v>
+        <v>197.3814433</v>
       </c>
       <c r="L17" s="1">
-        <v>3802.6494849999999</v>
+        <v>15126.329900000001</v>
       </c>
       <c r="M17" s="1">
-        <v>3753.2268039999999</v>
+        <v>14928.94845</v>
       </c>
       <c r="N17" s="1">
-        <v>27.391752579999999</v>
+        <v>19.824742270000002</v>
       </c>
       <c r="O17" s="1">
-        <v>99.030927840000004</v>
+        <v>100.8659794</v>
       </c>
       <c r="P17" s="1">
-        <v>78.284567550000006</v>
+        <v>77.986594100000005</v>
       </c>
       <c r="Q17" s="1">
-        <v>20.011952409999999</v>
+        <v>20.336356469999998</v>
       </c>
       <c r="R17" s="1">
-        <v>434.67973760000001</v>
+        <v>447.93002239999998</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -23034,52 +23026,52 @@
         <v>12</v>
       </c>
       <c r="B18" s="8">
-        <v>11.56565657</v>
+        <v>11.51515152</v>
       </c>
       <c r="C18" s="8">
-        <v>356.18181820000001</v>
+        <v>307.49494950000002</v>
       </c>
       <c r="D18" s="8">
-        <v>344.6161616</v>
+        <v>295.97979800000002</v>
       </c>
       <c r="E18" s="8">
-        <v>18.28282828</v>
+        <v>15.919191919999999</v>
       </c>
       <c r="F18" s="8">
-        <v>38.939393940000002</v>
+        <v>33.272727269999997</v>
       </c>
       <c r="G18" s="8">
-        <v>30.427251779999999</v>
+        <v>26.213870579999998</v>
       </c>
       <c r="H18" s="8">
-        <v>7.4665058220000002</v>
+        <v>6.3452085580000004</v>
       </c>
       <c r="I18" s="8">
-        <v>70.172124819999993</v>
+        <v>50.763472829999998</v>
       </c>
       <c r="K18" s="8">
-        <v>60.878787879999997</v>
+        <v>242.79797980000001</v>
       </c>
       <c r="L18" s="8">
-        <v>5478.181818</v>
+        <v>21825.686870000001</v>
       </c>
       <c r="M18" s="8">
-        <v>5417.30303</v>
+        <v>21582.888889999998</v>
       </c>
       <c r="N18" s="8">
-        <v>28.272727270000001</v>
+        <v>20.979797980000001</v>
       </c>
       <c r="O18" s="8">
-        <v>116.1010101</v>
+        <v>118.01010100000001</v>
       </c>
       <c r="P18" s="8">
-        <v>91.332784939999996</v>
+        <v>91.190876320000001</v>
       </c>
       <c r="Q18" s="8">
-        <v>23.707913600000001</v>
+        <v>23.809413370000001</v>
       </c>
       <c r="R18" s="8">
-        <v>605.69968159999996</v>
+        <v>607.16225970000005</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -23087,52 +23079,52 @@
         <v>14</v>
       </c>
       <c r="B19" s="1">
-        <v>14.070707069999999</v>
+        <v>14.020202019999999</v>
       </c>
       <c r="C19" s="1">
-        <v>528.08080810000001</v>
+        <v>414.97979800000002</v>
       </c>
       <c r="D19" s="1">
-        <v>514.01010099999996</v>
+        <v>400.95959599999998</v>
       </c>
       <c r="E19" s="1">
-        <v>20.01010101</v>
+        <v>15.969696969999999</v>
       </c>
       <c r="F19" s="1">
-        <v>47.777777780000001</v>
+        <v>37.171717170000001</v>
       </c>
       <c r="G19" s="1">
-        <v>37.322766270000002</v>
+        <v>29.209199430000002</v>
       </c>
       <c r="H19" s="1">
-        <v>9.3793808120000008</v>
+        <v>7.2011670309999998</v>
       </c>
       <c r="I19" s="1">
-        <v>103.10665</v>
+        <v>60.436836079999999</v>
       </c>
       <c r="K19" s="1">
-        <v>72.909090910000003</v>
+        <v>291.17171719999999</v>
       </c>
       <c r="L19" s="1">
-        <v>7488.7474750000001</v>
+        <v>29916.545450000001</v>
       </c>
       <c r="M19" s="1">
-        <v>7415.8383839999997</v>
+        <v>29625.373739999999</v>
       </c>
       <c r="N19" s="1">
-        <v>25.929292929999999</v>
+        <v>20.272727270000001</v>
       </c>
       <c r="O19" s="1">
-        <v>134.05050510000001</v>
+        <v>135.969697</v>
       </c>
       <c r="P19" s="1">
-        <v>103.4549698</v>
+        <v>103.54163389999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>29.003534940000002</v>
+        <v>28.87701839</v>
       </c>
       <c r="R19" s="1">
-        <v>897.39863620000006</v>
+        <v>884.43729010000004</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -23140,52 +23132,52 @@
         <v>16</v>
       </c>
       <c r="B20" s="8">
-        <v>16.43</v>
+        <v>16.3</v>
       </c>
       <c r="C20" s="8">
-        <v>749.47</v>
+        <v>543.62</v>
       </c>
       <c r="D20" s="8">
-        <v>733.04</v>
+        <v>527.32000000000005</v>
       </c>
       <c r="E20" s="8">
-        <v>23.75</v>
+        <v>17.21</v>
       </c>
       <c r="F20" s="8">
-        <v>58.66</v>
+        <v>42.38</v>
       </c>
       <c r="G20" s="8">
-        <v>45.74794953</v>
+        <v>33.14454963</v>
       </c>
       <c r="H20" s="8">
-        <v>11.76933337</v>
+        <v>8.5527159229999992</v>
       </c>
       <c r="I20" s="8">
-        <v>166.5898833</v>
+        <v>88.030601090000005</v>
       </c>
       <c r="K20" s="8">
-        <v>84.94</v>
+        <v>339.36</v>
       </c>
       <c r="L20" s="8">
-        <v>9726.83</v>
+        <v>38953.08</v>
       </c>
       <c r="M20" s="8">
-        <v>9641.89</v>
+        <v>38613.72</v>
       </c>
       <c r="N20" s="8">
-        <v>26.72</v>
+        <v>17.77</v>
       </c>
       <c r="O20" s="8">
-        <v>149.53</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="P20" s="8">
-        <v>115.5809029</v>
+        <v>115.82207440000001</v>
       </c>
       <c r="Q20" s="8">
-        <v>33.858662119999998</v>
+        <v>33.603654380000002</v>
       </c>
       <c r="R20" s="8">
-        <v>1227.8741</v>
+        <v>1199.4864789999999</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -23193,52 +23185,52 @@
         <v>18</v>
       </c>
       <c r="B21" s="1">
-        <v>18.24742268</v>
+        <v>18.18556701</v>
       </c>
       <c r="C21" s="1">
-        <v>987.86597940000001</v>
+        <v>692.65979379999999</v>
       </c>
       <c r="D21" s="1">
-        <v>969.6185567</v>
+        <v>674.4742268</v>
       </c>
       <c r="E21" s="1">
-        <v>27</v>
+        <v>19.18556701</v>
       </c>
       <c r="F21" s="1">
-        <v>69.18556701</v>
+        <v>47.927835049999999</v>
       </c>
       <c r="G21" s="1">
-        <v>54.054142400000003</v>
+        <v>37.70811621</v>
       </c>
       <c r="H21" s="1">
-        <v>13.684280660000001</v>
+        <v>9.3981537530000008</v>
       </c>
       <c r="I21" s="1">
-        <v>213.8925749</v>
+        <v>100.1391471</v>
       </c>
       <c r="K21" s="1">
-        <v>93.536082469999997</v>
+        <v>374.12371130000002</v>
       </c>
       <c r="L21" s="1">
-        <v>12308.804120000001</v>
+        <v>49206.164949999998</v>
       </c>
       <c r="M21" s="1">
-        <v>12215.268040000001</v>
+        <v>48832.041239999999</v>
       </c>
       <c r="N21" s="1">
-        <v>29.515463919999998</v>
+        <v>21.958762889999999</v>
       </c>
       <c r="O21" s="1">
-        <v>170.57731960000001</v>
+        <v>172.56701029999999</v>
       </c>
       <c r="P21" s="1">
-        <v>132.63237570000001</v>
+        <v>132.50407939999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>37.083239519999999</v>
+        <v>37.05771867</v>
       </c>
       <c r="R21" s="1">
-        <v>1428.062895</v>
+        <v>1424.5244849999999</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -23246,52 +23238,52 @@
         <v>20</v>
       </c>
       <c r="B22" s="10">
-        <v>20.40206186</v>
+        <v>20.30927835</v>
       </c>
       <c r="C22" s="10">
-        <v>1256.639175</v>
+        <v>846.8556701</v>
       </c>
       <c r="D22" s="10">
-        <v>1236.2371129999999</v>
+        <v>826.54639180000004</v>
       </c>
       <c r="E22" s="10">
-        <v>29.15463918</v>
+        <v>20.051546389999999</v>
       </c>
       <c r="F22" s="10">
-        <v>79.12371134</v>
+        <v>52.886597940000001</v>
       </c>
       <c r="G22" s="10">
-        <v>61.604193250000002</v>
+        <v>41.392901979999998</v>
       </c>
       <c r="H22" s="10">
-        <v>15.86573351</v>
+        <v>10.517408469999999</v>
       </c>
       <c r="I22" s="10">
-        <v>281.54371459999999</v>
+        <v>123.91606470000001</v>
       </c>
       <c r="K22" s="8">
-        <v>102.7731959</v>
+        <v>410.74226800000002</v>
       </c>
       <c r="L22" s="8">
-        <v>15198.144329999999</v>
+        <v>60834.75258</v>
       </c>
       <c r="M22" s="8">
-        <v>15095.37113</v>
+        <v>60424.010309999998</v>
       </c>
       <c r="N22" s="8">
-        <v>30.618556699999999</v>
+        <v>23.298969069999998</v>
       </c>
       <c r="O22" s="8">
-        <v>190.5257732</v>
+        <v>193.19587630000001</v>
       </c>
       <c r="P22" s="8">
-        <v>148.90385570000001</v>
+        <v>149.11104280000001</v>
       </c>
       <c r="Q22" s="8">
-        <v>41.944222099999998</v>
+        <v>41.5851288</v>
       </c>
       <c r="R22" s="8">
-        <v>1845.465841</v>
+        <v>1801.413258</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -23537,19 +23529,19 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>413.22222219999998</v>
+        <v>351.68686869999999</v>
       </c>
       <c r="D28" s="1">
-        <v>412.22222219999998</v>
+        <v>350.68686869999999</v>
       </c>
       <c r="E28" s="1">
-        <v>412.22222219999998</v>
+        <v>350.68686869999999</v>
       </c>
       <c r="F28" s="1">
-        <v>412.22222219999998</v>
+        <v>350.68686869999999</v>
       </c>
       <c r="G28" s="1">
-        <v>412.22222219999998</v>
+        <v>350.68686869999999</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -23590,19 +23582,19 @@
         <v>1</v>
       </c>
       <c r="C29" s="8">
-        <v>468.71717169999999</v>
+        <v>368.93939390000003</v>
       </c>
       <c r="D29" s="8">
-        <v>467.71717169999999</v>
+        <v>367.93939390000003</v>
       </c>
       <c r="E29" s="8">
-        <v>467.71717169999999</v>
+        <v>367.93939390000003</v>
       </c>
       <c r="F29" s="8">
-        <v>467.71717169999999</v>
+        <v>367.93939390000003</v>
       </c>
       <c r="G29" s="8">
-        <v>467.71717169999999</v>
+        <v>367.93939390000003</v>
       </c>
       <c r="H29" s="8">
         <v>0</v>
@@ -23643,19 +23635,19 @@
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>549.33000000000004</v>
+        <v>401.67</v>
       </c>
       <c r="D30" s="1">
-        <v>548.33000000000004</v>
+        <v>400.67</v>
       </c>
       <c r="E30" s="1">
-        <v>548.33000000000004</v>
+        <v>400.67</v>
       </c>
       <c r="F30" s="1">
-        <v>548.33000000000004</v>
+        <v>400.67</v>
       </c>
       <c r="G30" s="1">
-        <v>548.33000000000004</v>
+        <v>400.67</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -23696,19 +23688,19 @@
         <v>1</v>
       </c>
       <c r="C31" s="8">
-        <v>613.0927835</v>
+        <v>425.39175260000002</v>
       </c>
       <c r="D31" s="8">
-        <v>612.0927835</v>
+        <v>424.39175260000002</v>
       </c>
       <c r="E31" s="8">
-        <v>612.0927835</v>
+        <v>424.39175260000002</v>
       </c>
       <c r="F31" s="8">
-        <v>612.0927835</v>
+        <v>424.39175260000002</v>
       </c>
       <c r="G31" s="8">
-        <v>612.0927835</v>
+        <v>424.39175260000002</v>
       </c>
       <c r="H31" s="8">
         <v>0</v>
@@ -23749,19 +23741,19 @@
         <v>1</v>
       </c>
       <c r="C32" s="6">
-        <v>665.18556699999999</v>
+        <v>437.63917529999998</v>
       </c>
       <c r="D32" s="6">
-        <v>664.18556699999999</v>
+        <v>436.63917529999998</v>
       </c>
       <c r="E32" s="6">
-        <v>664.18556699999999</v>
+        <v>436.63917529999998</v>
       </c>
       <c r="F32" s="6">
-        <v>664.18556699999999</v>
+        <v>436.63917529999998</v>
       </c>
       <c r="G32" s="6">
-        <v>664.18556699999999</v>
+        <v>436.63917529999998</v>
       </c>
       <c r="H32" s="6">
         <v>0</v>
@@ -24037,19 +24029,19 @@
         <v>1</v>
       </c>
       <c r="C38" s="8">
-        <v>76.424242419999999</v>
+        <v>65.646464649999999</v>
       </c>
       <c r="D38" s="8">
-        <v>75.424242419999999</v>
+        <v>64.646464649999999</v>
       </c>
       <c r="E38" s="8">
-        <v>75.424242419999999</v>
+        <v>64.646464649999999</v>
       </c>
       <c r="F38" s="8">
-        <v>75.424242419999999</v>
+        <v>64.646464649999999</v>
       </c>
       <c r="G38" s="8">
-        <v>75.424242419999999</v>
+        <v>64.646464649999999</v>
       </c>
       <c r="H38" s="8">
         <v>0</v>
@@ -24090,19 +24082,19 @@
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>98.686868689999997</v>
+        <v>76.858585860000005</v>
       </c>
       <c r="D39" s="1">
-        <v>97.686868689999997</v>
+        <v>75.858585860000005</v>
       </c>
       <c r="E39" s="1">
-        <v>97.686868689999997</v>
+        <v>75.858585860000005</v>
       </c>
       <c r="F39" s="1">
-        <v>97.686868689999997</v>
+        <v>75.858585860000005</v>
       </c>
       <c r="G39" s="1">
-        <v>97.686868689999997</v>
+        <v>75.858585860000005</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -24143,19 +24135,19 @@
         <v>1</v>
       </c>
       <c r="C40" s="8">
-        <v>121.93</v>
+        <v>88.94</v>
       </c>
       <c r="D40" s="8">
-        <v>120.93</v>
+        <v>87.94</v>
       </c>
       <c r="E40" s="8">
-        <v>120.93</v>
+        <v>87.94</v>
       </c>
       <c r="F40" s="8">
-        <v>120.93</v>
+        <v>87.94</v>
       </c>
       <c r="G40" s="8">
-        <v>120.93</v>
+        <v>87.94</v>
       </c>
       <c r="H40" s="8">
         <v>0</v>
@@ -24196,19 +24188,19 @@
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>141.8247423</v>
+        <v>99.175257729999998</v>
       </c>
       <c r="D41" s="1">
-        <v>140.8247423</v>
+        <v>98.175257729999998</v>
       </c>
       <c r="E41" s="1">
-        <v>140.8247423</v>
+        <v>98.175257729999998</v>
       </c>
       <c r="F41" s="1">
-        <v>140.8247423</v>
+        <v>98.175257729999998</v>
       </c>
       <c r="G41" s="1">
-        <v>140.8247423</v>
+        <v>98.175257729999998</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -24249,19 +24241,19 @@
         <v>1</v>
       </c>
       <c r="C42" s="8">
-        <v>162.95876290000001</v>
+        <v>109.0103093</v>
       </c>
       <c r="D42" s="8">
-        <v>161.95876290000001</v>
+        <v>108.0103093</v>
       </c>
       <c r="E42" s="8">
-        <v>161.95876290000001</v>
+        <v>108.0103093</v>
       </c>
       <c r="F42" s="8">
-        <v>161.95876290000001</v>
+        <v>108.0103093</v>
       </c>
       <c r="G42" s="8">
-        <v>161.95876290000001</v>
+        <v>108.0103093</v>
       </c>
       <c r="H42" s="8">
         <v>0</v>
